--- a/PREGAME/1.ILICITACION/1.3 Historia de usuario/Matriz_Marco_Trabajo_HU_4G_V1.04.xlsx
+++ b/PREGAME/1.ILICITACION/1.3 Historia de usuario/Matriz_Marco_Trabajo_HU_4G_V1.04.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grett\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Usuario\Nueva carpeta (2)\MAY - AGOS 23\MET. DES. SOFTWARE\GitHub\Sangucho-Paola_9899_4G_MDWS\PREGAME\1.ILICITACION\1.3 Historia de usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F5C7DEA-B847-4A0F-81BF-03B95927CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
     <sheet name="Historia de Usuario" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -310,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -978,36 +977,16 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,6 +995,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,14 +1374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:O1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1719,7 @@
         <v>48</v>
       </c>
       <c r="L11" s="48" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="M11" s="47" t="s">
         <v>63</v>
@@ -7819,10 +7818,10 @@
     <mergeCell ref="B3:O3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L21">
       <formula1>$L$31:$L$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K21" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K21">
       <formula1>$K$31:$K$33</formula1>
     </dataValidation>
   </dataValidations>
@@ -7833,7 +7832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7867,23 +7866,23 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="26"/>
@@ -7923,15 +7922,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="77"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="78" t="s">
+      <c r="H9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -7946,17 +7945,17 @@
         <v>15</v>
       </c>
       <c r="D10" s="31"/>
-      <c r="E10" s="79" t="str">
+      <c r="E10" s="81" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,5,0)</f>
         <v>Usuario</v>
       </c>
-      <c r="F10" s="77"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="79" t="str">
+      <c r="H10" s="81" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,11,0)</f>
         <v>En proceso</v>
       </c>
-      <c r="I10" s="77"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="32"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -7988,15 +7987,15 @@
         <v>80</v>
       </c>
       <c r="D12" s="31"/>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="77"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="77"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="32"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -8012,17 +8011,17 @@
         <v>2</v>
       </c>
       <c r="D13" s="31"/>
-      <c r="E13" s="79" t="str">
+      <c r="E13" s="81" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="77"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="79" t="str">
+      <c r="H13" s="81" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,7,0)</f>
         <v>C.Santiago</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="32"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
@@ -8053,65 +8052,65 @@
       <c r="C15" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="80" t="str">
+      <c r="D15" s="86" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,3,0)</f>
         <v>Crear ingreso al usuario</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="29"/>
       <c r="G15" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="80" t="str">
+      <c r="H15" s="86" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,4,0)</f>
         <v>Implementar un sistema de autenticación</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="29"/>
       <c r="L15" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="72" t="str">
+      <c r="M15" s="65" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,6,0)</f>
         <v>Mostrar un formulario de inicio de sesion. Validar credenciales ingresadas otorgadar por el programador</v>
       </c>
-      <c r="N15" s="73"/>
-      <c r="O15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="67"/>
       <c r="P15" s="44"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="43"/>
       <c r="C16" s="63"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="29"/>
       <c r="G16" s="63"/>
-      <c r="H16" s="70"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="71"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="29"/>
       <c r="L16" s="63"/>
-      <c r="M16" s="70"/>
+      <c r="M16" s="68"/>
       <c r="N16" s="61"/>
-      <c r="O16" s="71"/>
+      <c r="O16" s="69"/>
       <c r="P16" s="44"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="43"/>
       <c r="C17" s="64"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="29"/>
       <c r="G17" s="64"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="68"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="29"/>
       <c r="L17" s="64"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="68"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
       <c r="P17" s="44"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,40 +8132,40 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="43"/>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="81" t="s">
+      <c r="D19" s="67"/>
+      <c r="E19" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="83"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="75"/>
       <c r="P19" s="44"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="43"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="86"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
       <c r="P20" s="44"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8188,63 +8187,63 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="43"/>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="72" t="str">
+      <c r="D22" s="67"/>
+      <c r="E22" s="65" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,12,0)</f>
         <v>Verificar que en el diseño principal del sistema exista la opción de ingresar el usuario y contraseña y a su vez funcione de forma óptima</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="72">
+      <c r="K22" s="67"/>
+      <c r="L22" s="65">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="43"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="70"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="61"/>
       <c r="G23" s="61"/>
-      <c r="H23" s="71"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="70"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="68"/>
       <c r="M23" s="61"/>
       <c r="N23" s="61"/>
-      <c r="O23" s="71"/>
+      <c r="O23" s="69"/>
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="43"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="68"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="68"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="72"/>
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9261,11 +9260,6 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -9282,6 +9276,11 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -9304,7 +9303,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Formato descripción HU'!$B$6:$B$21</xm:f>
           </x14:formula1>
